--- a/Selection of Prompt Engineering Methods/Hand-Labeled Method and Implementation Considerations.xlsx
+++ b/Selection of Prompt Engineering Methods/Hand-Labeled Method and Implementation Considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Selection of Prompt Engineering Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28817D07-9CF4-4F5F-A82F-FCC695004354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F647F-C3F6-4922-871C-32402907E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="465">
   <si>
     <t>paper title</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Scaling Laws for Neural Language Models</t>
   </si>
   <si>
-    <t>Making Pre-trained Language Models Better Few-shot Learners</t>
-  </si>
-  <si>
     <t>Making Pre trained Language Models Better Few shot Learners</t>
   </si>
   <si>
@@ -155,15 +152,9 @@
     <t>Rethinking the Role of Demonstrations: What Makes In Context Learning Work?</t>
   </si>
   <si>
-    <t>Least-to-most prompting enables complex reasoning in large language models</t>
-  </si>
-  <si>
     <t>Least-to-Most Prompting Enables Complex Reasoning in Large Language Models</t>
   </si>
   <si>
-    <t>Least to most prompting enables complex reasoning in large language models</t>
-  </si>
-  <si>
     <t>A Prompt Pattern Catalog to Enhance Prompt Engineering with ChatGPT</t>
   </si>
   <si>
@@ -200,12 +191,6 @@
     <t>Show Your Work: Scratchpads for Intermediate Computation with Language Models</t>
   </si>
   <si>
-    <t>Atlas: Few-shot Learning with Retrieval Augmented Language Models</t>
-  </si>
-  <si>
-    <t>Few-shot Learning with Retrieval Augmented Language Models</t>
-  </si>
-  <si>
     <t>Atlas: Few shot Learning with Retrieval Augmented Language Models</t>
   </si>
   <si>
@@ -245,9 +230,6 @@
     <t>Chain of Verification Reduces Hallucination in Large Language Models</t>
   </si>
   <si>
-    <t>PPT: Pre-trained Prompt Tuning for Few-shot Learning</t>
-  </si>
-  <si>
     <t>PPT: Pre trained Prompt Tuning for Few shot Learning</t>
   </si>
   <si>
@@ -338,9 +320,6 @@
     <t>Ask Me Anything: A simple strategy for prompting language models</t>
   </si>
   <si>
-    <t>Promptagator: Few-shot Dense Retrieval From 8 Examples</t>
-  </si>
-  <si>
     <t>Promptagator: Few shot Dense Retrieval From 8 Examples</t>
   </si>
   <si>
@@ -398,9 +377,6 @@
     <t>Dynamic Prompt Learning via Policy Gradient for Semi structured Mathematical Reasoning</t>
   </si>
   <si>
-    <t>Prompt, Generate, then Cache: Cascade of Foundation Models makes Strong Few-shot Learners</t>
-  </si>
-  <si>
     <t>Prompt, Generate, Then Cache: Cascade of Foundation Models Makes Strong Few-Shot Learners</t>
   </si>
   <si>
@@ -467,9 +443,6 @@
     <t>Multitask Prompt Tuning Enables Parameter Efficient Transfer Learning</t>
   </si>
   <si>
-    <t>The Unreliability of Explanations in Few-shot Prompting for Textual Reasoning</t>
-  </si>
-  <si>
     <t>The Unreliability of Explanations in Few shot Prompting for Textual Reasoning</t>
   </si>
   <si>
@@ -761,9 +734,6 @@
     <t>Mixture of Soft Prompts for Controllable Data Generation</t>
   </si>
   <si>
-    <t>Fairness-guided Few-shot Prompting for Large Language Models</t>
-  </si>
-  <si>
     <t>Fairness guided Few shot Prompting for Large Language Models</t>
   </si>
   <si>
@@ -896,45 +866,24 @@
     <t>Datasets</t>
   </si>
   <si>
-    <t>Few-shot Learning</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Original GPT-3 Paper</t>
   </si>
   <si>
-    <t>Chain-of-thought Prompting</t>
-  </si>
-  <si>
     <t>Prompt Tuning</t>
   </si>
   <si>
-    <t>Tree-of-thought</t>
-  </si>
-  <si>
-    <t>Self-consistency decoding</t>
-  </si>
-  <si>
-    <t>Self-refine</t>
-  </si>
-  <si>
     <t>ReAct</t>
   </si>
   <si>
-    <t>Least-to-most prompting</t>
-  </si>
-  <si>
     <t>Automatic Prompt Engineer</t>
   </si>
   <si>
     <t>Multimodal CoT</t>
   </si>
   <si>
-    <t>Complexity-based prompting</t>
-  </si>
-  <si>
     <t>Automatic Reasoning and Tool-Use</t>
   </si>
   <si>
@@ -971,9 +920,6 @@
     <t>HumanEval</t>
   </si>
   <si>
-    <t>Zero-Shot Chain-of-thought</t>
-  </si>
-  <si>
     <t>GSM8K, Last Letter, Coin Flip, Date Understanding</t>
   </si>
   <si>
@@ -1046,9 +992,6 @@
     <t>Retrieval-Augmented-Generation</t>
   </si>
   <si>
-    <t>Good paper concerning the importance of the label space, distribution of input text, etc. for few-shot prompting</t>
-  </si>
-  <si>
     <t>Last Letter, SCAN, GSM8K, DROP</t>
   </si>
   <si>
@@ -1130,9 +1073,6 @@
     <t>Could maybe do scratchpads for non-math/code tasks. This would potentially be trickier to do via prompting as opposed to using underly algorithms like in the paper</t>
   </si>
   <si>
-    <t>Few-shot Retrieval Augmented Generation</t>
-  </si>
-  <si>
     <t>Maybe</t>
   </si>
   <si>
@@ -1151,9 +1091,6 @@
     <t>SST, DBPedia, MR, CR, MPQA, Subj, TREC, AGNews, RTE, CB</t>
   </si>
   <si>
-    <t>Few-shot Prompt Ordering</t>
-  </si>
-  <si>
     <t>MathMix, MATH</t>
   </si>
   <si>
@@ -1190,9 +1127,6 @@
     <t>20-30%</t>
   </si>
   <si>
-    <t>Can be implemented few-shot or zero-shot. There are several variants - Joint, 2-Step, Factored, Factor+Revise, and each has varying numbers of steps</t>
-  </si>
-  <si>
     <t>Pre-trained Prompt Tuning</t>
   </si>
   <si>
@@ -1235,9 +1169,6 @@
     <t>Not very generalizable as it uses a specialized dataset. The techniques may be somewhat useful though</t>
   </si>
   <si>
-    <t>Various, Instruction to Ignore Irrelevant Information</t>
-  </si>
-  <si>
     <t>Reasoning via Planning</t>
   </si>
   <si>
@@ -1343,9 +1274,6 @@
     <t>Requires a weak supervision model and a probabilistic graphical model</t>
   </si>
   <si>
-    <t>Few-shot Dense Retrieval</t>
-  </si>
-  <si>
     <t>Fever, SciFact, SciDocs, HotpotQ</t>
   </si>
   <si>
@@ -1431,6 +1359,78 @@
   </si>
   <si>
     <t>GSM8K, Last Letter, Various</t>
+  </si>
+  <si>
+    <t>Instruction to Ignore Irrelevant Information</t>
+  </si>
+  <si>
+    <t>Few-Shot Learning</t>
+  </si>
+  <si>
+    <t>Chain-of-Thought Prompting</t>
+  </si>
+  <si>
+    <t>Zero-Shot Chain-of-Thought</t>
+  </si>
+  <si>
+    <t>Tree-of-Thought</t>
+  </si>
+  <si>
+    <t>Self-Consistency Decoding</t>
+  </si>
+  <si>
+    <t>Self-Refine</t>
+  </si>
+  <si>
+    <t>Complexity-Based Prompting</t>
+  </si>
+  <si>
+    <t>Least-to-Most Prompting</t>
+  </si>
+  <si>
+    <t>Least to most prompting enables complex reasoning in large language models</t>
+  </si>
+  <si>
+    <t>Least-to-most prompting enables complex reasoning in large language models</t>
+  </si>
+  <si>
+    <t>Making Pre-trained Language Models Better Few-Shot Learners</t>
+  </si>
+  <si>
+    <t>Good paper concerning the importance of the label space, distribution of input text, etc. for Few-Shot prompting</t>
+  </si>
+  <si>
+    <t>Atlas: Few-Shot Learning with Retrieval Augmented Language Models</t>
+  </si>
+  <si>
+    <t>Few-Shot Learning with Retrieval Augmented Language Models</t>
+  </si>
+  <si>
+    <t>Few-Shot Retrieval Augmented Generation</t>
+  </si>
+  <si>
+    <t>Few-Shot Prompt Ordering</t>
+  </si>
+  <si>
+    <t>Can be implemented Few-Shot or zero-shot. There are several variants - Joint, 2-Step, Factored, Factor+Revise, and each has varying numbers of steps</t>
+  </si>
+  <si>
+    <t>PPT: Pre-trained Prompt Tuning for Few-Shot Learning</t>
+  </si>
+  <si>
+    <t>Promptagator: Few-Shot Dense Retrieval From 8 Examples</t>
+  </si>
+  <si>
+    <t>Few-Shot Dense Retrieval</t>
+  </si>
+  <si>
+    <t>Prompt, Generate, then Cache: Cascade of Foundation Models makes Strong Few-Shot Learners</t>
+  </si>
+  <si>
+    <t>The Unreliability of Explanations in Few-Shot Prompting for Textual Reasoning</t>
+  </si>
+  <si>
+    <t>Fairness-guided Few-Shot Prompting for Large Language Models</t>
   </si>
 </sst>
 </file>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,6 +1864,7 @@
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5546875" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -1899,22 +1900,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1949,10 +1950,10 @@
         <v>13.23070027637408</v>
       </c>
       <c r="K2" t="s">
-        <v>286</v>
+        <v>442</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M2" s="10">
         <v>4</v>
@@ -1961,10 +1962,10 @@
         <v>0.1</v>
       </c>
       <c r="O2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="P2" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1999,22 +2000,22 @@
         <v>6.9009214194273243</v>
       </c>
       <c r="K3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M3" t="s">
-        <v>304</v>
-      </c>
-      <c r="N3" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="S3" s="8"/>
     </row>
@@ -2050,22 +2051,22 @@
         <v>5.0354387167528598</v>
       </c>
       <c r="K4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" t="s">
-        <v>304</v>
-      </c>
-      <c r="N4" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="P4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2100,10 +2101,10 @@
         <v>3.3277232852581449</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M5" s="10">
         <v>3</v>
@@ -2112,10 +2113,10 @@
         <v>0.4</v>
       </c>
       <c r="O5" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="P5" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2150,22 +2151,22 @@
         <v>2.23906210114813</v>
       </c>
       <c r="K6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" t="s">
-        <v>304</v>
-      </c>
-      <c r="M6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N6" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O6" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2200,22 +2201,22 @@
         <v>1.9305973178964859</v>
       </c>
       <c r="K7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M7" t="s">
-        <v>304</v>
-      </c>
-      <c r="N7" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2250,10 +2251,10 @@
         <v>1.7074340242348329</v>
       </c>
       <c r="K8" t="s">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M8" s="10">
         <v>1</v>
@@ -2262,10 +2263,10 @@
         <v>0.3</v>
       </c>
       <c r="O8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="P8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2300,22 +2301,22 @@
         <v>1.667457500398043</v>
       </c>
       <c r="K9" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M9" s="10">
         <v>5</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="O9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2350,10 +2351,10 @@
         <v>1.4315930415437761</v>
       </c>
       <c r="K10" t="s">
-        <v>291</v>
+        <v>445</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M10" s="10">
         <v>3</v>
@@ -2362,10 +2363,10 @@
         <v>0.7</v>
       </c>
       <c r="O10" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="P10" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2400,22 +2401,22 @@
         <v>1.252771595523718</v>
       </c>
       <c r="K11" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" t="s">
-        <v>304</v>
-      </c>
-      <c r="M11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N11" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O11" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2450,22 +2451,22 @@
         <v>1.135101903478956</v>
       </c>
       <c r="K12" t="s">
-        <v>292</v>
+        <v>446</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M12" s="10">
         <v>5</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="O12" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2500,30 +2501,30 @@
         <v>1.1179596365535029</v>
       </c>
       <c r="K13" t="s">
-        <v>304</v>
-      </c>
-      <c r="L13" t="s">
-        <v>304</v>
-      </c>
-      <c r="M13" t="s">
-        <v>304</v>
-      </c>
-      <c r="N13" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O13" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="P13" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="C14" s="2">
         <v>44197</v>
@@ -2535,7 +2536,7 @@
         <v>1082</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2">
         <v>45221</v>
@@ -2550,10 +2551,10 @@
         <v>1.056058333234885</v>
       </c>
       <c r="K14" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M14" s="10">
         <v>4</v>
@@ -2562,18 +2563,18 @@
         <v>0.11</v>
       </c>
       <c r="O14" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="P14" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>44910</v>
@@ -2585,7 +2586,7 @@
         <v>307</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2">
         <v>45221</v>
@@ -2600,30 +2601,30 @@
         <v>0.98534937812037926</v>
       </c>
       <c r="K15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L15" t="s">
-        <v>304</v>
-      </c>
-      <c r="M15" t="s">
-        <v>304</v>
-      </c>
-      <c r="N15" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O15" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="P15" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>45015</v>
@@ -2635,7 +2636,7 @@
         <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2">
         <v>45221</v>
@@ -2650,10 +2651,10 @@
         <v>0.97306113943631001</v>
       </c>
       <c r="K16" t="s">
-        <v>293</v>
+        <v>447</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M16" s="10">
         <v>3</v>
@@ -2662,18 +2663,18 @@
         <v>0.2</v>
       </c>
       <c r="O16" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="P16" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>44840</v>
@@ -2685,7 +2686,7 @@
         <v>332</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2">
         <v>45221</v>
@@ -2700,30 +2701,30 @@
         <v>0.87010164628946818</v>
       </c>
       <c r="K17" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M17" s="10">
         <v>4</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="O17" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="P17" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
         <v>43973</v>
@@ -2735,7 +2736,7 @@
         <v>956</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
         <v>45221</v>
@@ -2750,30 +2751,30 @@
         <v>0.76567923536422988</v>
       </c>
       <c r="K18" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M18" s="10">
         <v>5</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="O18" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="P18" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>44617</v>
@@ -2785,7 +2786,7 @@
         <v>431</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>45221</v>
@@ -2800,30 +2801,30 @@
         <v>0.71290973543928726</v>
       </c>
       <c r="K19" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" t="s">
-        <v>304</v>
-      </c>
-      <c r="M19" t="s">
-        <v>304</v>
-      </c>
-      <c r="N19" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O19" t="s">
-        <v>336</v>
+        <v>453</v>
       </c>
       <c r="P19" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>44702</v>
@@ -2835,7 +2836,7 @@
         <v>369</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="G20" s="2">
         <v>45221</v>
@@ -2850,30 +2851,30 @@
         <v>0.71021002794157906</v>
       </c>
       <c r="K20" t="s">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M20" s="10">
         <v>2</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="O20" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="P20" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>44978</v>
@@ -2885,7 +2886,7 @@
         <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2">
         <v>45221</v>
@@ -2900,30 +2901,30 @@
         <v>0.66922693081589502</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21" t="s">
-        <v>304</v>
-      </c>
-      <c r="M21" t="s">
-        <v>304</v>
-      </c>
-      <c r="N21" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O21" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="P21" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>44984</v>
@@ -2935,7 +2936,7 @@
         <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2">
         <v>45221</v>
@@ -2950,30 +2951,30 @@
         <v>0.64824468812237357</v>
       </c>
       <c r="K22" t="s">
-        <v>304</v>
-      </c>
-      <c r="L22" t="s">
-        <v>304</v>
-      </c>
-      <c r="M22" t="s">
-        <v>304</v>
-      </c>
-      <c r="N22" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O22" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="P22" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>44246</v>
@@ -2985,7 +2986,7 @@
         <v>616</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2">
         <v>45221</v>
@@ -3000,10 +3001,10 @@
         <v>0.63142921575299549</v>
       </c>
       <c r="K23" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M23" s="10">
         <v>5</v>
@@ -3012,18 +3013,18 @@
         <v>0.4</v>
       </c>
       <c r="O23" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="P23" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2">
         <v>44883</v>
@@ -3035,7 +3036,7 @@
         <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2">
         <v>45221</v>
@@ -3050,10 +3051,10 @@
         <v>0.58482189517385985</v>
       </c>
       <c r="K24" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M24" s="10">
         <v>4</v>
@@ -3062,15 +3063,15 @@
         <v>0.15</v>
       </c>
       <c r="O24" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>44868</v>
@@ -3082,7 +3083,7 @@
         <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G25" s="2">
         <v>45221</v>
@@ -3097,10 +3098,10 @@
         <v>0.54869744189900238</v>
       </c>
       <c r="K25" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M25" s="10">
         <v>4</v>
@@ -3109,18 +3110,18 @@
         <v>0.1</v>
       </c>
       <c r="O25" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="P25" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2">
         <v>43797</v>
@@ -3132,7 +3133,7 @@
         <v>763</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" s="2">
         <v>45221</v>
@@ -3147,10 +3148,10 @@
         <v>0.53560224068977191</v>
       </c>
       <c r="K26" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M26" s="10">
         <v>4</v>
@@ -3159,18 +3160,18 @@
         <v>0.1</v>
       </c>
       <c r="O26" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="P26" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <v>45156</v>
@@ -3182,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="2">
         <v>45221</v>
@@ -3197,10 +3198,10 @@
         <v>0.53382453022901966</v>
       </c>
       <c r="K27" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M27" s="10">
         <v>5</v>
@@ -3209,18 +3210,18 @@
         <v>0.3</v>
       </c>
       <c r="O27" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="P27" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2">
         <v>44841</v>
@@ -3232,7 +3233,7 @@
         <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2">
         <v>45221</v>
@@ -3247,30 +3248,30 @@
         <v>0.52816260861278796</v>
       </c>
       <c r="K28" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M28" s="10">
         <v>4</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O28" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="P28" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2">
         <v>44530</v>
@@ -3282,7 +3283,7 @@
         <v>315</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2">
         <v>45221</v>
@@ -3297,30 +3298,30 @@
         <v>0.45548889141916798</v>
       </c>
       <c r="K29" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M29" s="10">
         <v>4</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="O29" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="P29" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>454</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="C30" s="2">
         <v>44778</v>
@@ -3332,7 +3333,7 @@
         <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2">
         <v>45221</v>
@@ -3347,30 +3348,30 @@
         <v>0.45540151986899607</v>
       </c>
       <c r="K30" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M30" s="10">
         <v>5</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="O30" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="P30" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2">
         <v>44304</v>
@@ -3382,7 +3383,7 @@
         <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G31" s="2">
         <v>45221</v>
@@ -3397,10 +3398,10 @@
         <v>0.44465533343947827</v>
       </c>
       <c r="K31" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M31" s="10">
         <v>5</v>
@@ -3409,18 +3410,18 @@
         <v>0.13</v>
       </c>
       <c r="O31" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="P31" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
         <v>45077</v>
@@ -3432,7 +3433,7 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2">
         <v>45221</v>
@@ -3447,10 +3448,10 @@
         <v>0.44270861051173221</v>
       </c>
       <c r="K32" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M32" s="10">
         <v>5</v>
@@ -3459,18 +3460,18 @@
         <v>0.06</v>
       </c>
       <c r="O32" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="P32" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2">
         <v>44992</v>
@@ -3482,7 +3483,7 @@
         <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G33" s="2">
         <v>45221</v>
@@ -3497,30 +3498,30 @@
         <v>0.37897826657409323</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
-      </c>
-      <c r="L33" t="s">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s">
-        <v>304</v>
-      </c>
-      <c r="N33" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O33" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="P33" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2">
         <v>44959</v>
@@ -3532,7 +3533,7 @@
         <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2">
         <v>45221</v>
@@ -3547,10 +3548,10 @@
         <v>0.34658135435143861</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M34" s="10">
         <v>4</v>
@@ -3559,18 +3560,18 @@
         <v>0.16</v>
       </c>
       <c r="O34" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="P34" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2">
         <v>44242</v>
@@ -3582,7 +3583,7 @@
         <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2">
         <v>45221</v>
@@ -3597,27 +3598,27 @@
         <v>0.32361315938304103</v>
       </c>
       <c r="K35" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2">
         <v>45016</v>
@@ -3629,7 +3630,7 @@
         <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G36" s="2">
         <v>45221</v>
@@ -3644,27 +3645,27 @@
         <v>0.31133762921471098</v>
       </c>
       <c r="K36" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M36" s="10">
         <v>4</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2">
         <v>45189</v>
@@ -3676,7 +3677,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G37" s="2">
         <v>45221</v>
@@ -3691,30 +3692,30 @@
         <v>0.30708177836934902</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M37" s="10">
         <v>3</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="P37" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="C38" s="2">
         <v>44448</v>
@@ -3726,7 +3727,7 @@
         <v>234</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G38" s="2">
         <v>45221</v>
@@ -3741,30 +3742,30 @@
         <v>0.30249573901181348</v>
       </c>
       <c r="K38" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M38" s="10">
         <v>5</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="O38" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="P38" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2">
         <v>44837</v>
@@ -3776,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2">
         <v>45221</v>
@@ -3791,30 +3792,30 @@
         <v>0.30163981646655508</v>
       </c>
       <c r="K39" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M39" s="10">
         <v>3</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="P39" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2">
         <v>44976</v>
@@ -3826,7 +3827,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2">
         <v>45221</v>
@@ -3841,30 +3842,30 @@
         <v>0.29727409989322168</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
-      </c>
-      <c r="L40" t="s">
-        <v>304</v>
-      </c>
-      <c r="M40" t="s">
-        <v>304</v>
-      </c>
-      <c r="N40" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O40" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="P40" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2">
         <v>44914</v>
@@ -3876,7 +3877,7 @@
         <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G41" s="2">
         <v>45221</v>
@@ -3891,30 +3892,30 @@
         <v>0.28286738997947958</v>
       </c>
       <c r="K41" t="s">
-        <v>304</v>
-      </c>
-      <c r="L41" t="s">
-        <v>304</v>
-      </c>
-      <c r="M41" t="s">
-        <v>304</v>
-      </c>
-      <c r="N41" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O41" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2">
         <v>44839</v>
@@ -3926,7 +3927,7 @@
         <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G42" s="2">
         <v>45221</v>
@@ -3941,27 +3942,27 @@
         <v>0.27184950155199189</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M42" s="10">
         <v>4</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2">
         <v>45052</v>
@@ -3973,7 +3974,7 @@
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G43" s="2">
         <v>45221</v>
@@ -3988,27 +3989,27 @@
         <v>0.27128301443900782</v>
       </c>
       <c r="K43" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M43" s="10">
         <v>2</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2">
         <v>44957</v>
@@ -4020,7 +4021,7 @@
         <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G44" s="2">
         <v>45221</v>
@@ -4035,30 +4036,30 @@
         <v>0.26458564726002243</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M44" s="10">
         <v>2</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="O44" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2">
         <v>45070</v>
@@ -4070,7 +4071,7 @@
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" s="2">
         <v>45221</v>
@@ -4085,30 +4086,30 @@
         <v>0.22432676595922049</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M45" s="10">
         <v>5</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="P45" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2">
         <v>45184</v>
@@ -4120,7 +4121,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G46" s="2">
         <v>45221</v>
@@ -4135,30 +4136,30 @@
         <v>0.21296637596359169</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M46" s="10">
         <v>4</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="P46" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C47" s="2">
         <v>44882</v>
@@ -4170,7 +4171,7 @@
         <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G47" s="2">
         <v>45221</v>
@@ -4185,30 +4186,30 @@
         <v>0.20025643698396339</v>
       </c>
       <c r="K47" t="s">
-        <v>304</v>
-      </c>
-      <c r="L47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M47" t="s">
-        <v>304</v>
-      </c>
-      <c r="N47" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O47" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="P47" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2">
         <v>44133</v>
@@ -4220,7 +4221,7 @@
         <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G48" s="2">
         <v>45221</v>
@@ -4235,30 +4236,30 @@
         <v>0.19934507969108409</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M48" s="10">
         <v>5</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="O48" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="P48" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2">
         <v>44972</v>
@@ -4270,7 +4271,7 @@
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G49" s="2">
         <v>45221</v>
@@ -4285,30 +4286,30 @@
         <v>0.19634193704577491</v>
       </c>
       <c r="K49" t="s">
-        <v>304</v>
-      </c>
-      <c r="L49" t="s">
-        <v>304</v>
-      </c>
-      <c r="M49" t="s">
-        <v>304</v>
-      </c>
-      <c r="N49" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O49" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="P49" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2">
         <v>44473</v>
@@ -4320,7 +4321,7 @@
         <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G50" s="2">
         <v>45221</v>
@@ -4335,30 +4336,30 @@
         <v>0.19503994311521911</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M50" s="10">
         <v>4</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2">
         <v>44851</v>
@@ -4370,7 +4371,7 @@
         <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G51" s="2">
         <v>45221</v>
@@ -4385,27 +4386,27 @@
         <v>0.1942980981277477</v>
       </c>
       <c r="K51" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M51" s="10">
         <v>4</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2">
         <v>44923</v>
@@ -4417,7 +4418,7 @@
         <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G52" s="2">
         <v>45221</v>
@@ -4432,30 +4433,30 @@
         <v>0.19091344742643501</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M52" s="10">
         <v>4</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="P52" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2">
         <v>44453</v>
@@ -4467,7 +4468,7 @@
         <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G53" s="2">
         <v>45221</v>
@@ -4482,30 +4483,30 @@
         <v>0.18476000216517699</v>
       </c>
       <c r="K53" t="s">
-        <v>304</v>
-      </c>
-      <c r="L53" t="s">
-        <v>304</v>
-      </c>
-      <c r="M53" t="s">
-        <v>304</v>
-      </c>
-      <c r="N53" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O53" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2">
         <v>45001</v>
@@ -4517,7 +4518,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G54" s="2">
         <v>45221</v>
@@ -4532,30 +4533,30 @@
         <v>0.1768189332383325</v>
       </c>
       <c r="K54" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M54" s="10">
         <v>4</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="O54" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="P54" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2">
         <v>45020</v>
@@ -4567,7 +4568,7 @@
         <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G55" s="2">
         <v>45221</v>
@@ -4582,30 +4583,30 @@
         <v>0.17364158850799219</v>
       </c>
       <c r="K55" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M55" s="10">
         <v>5</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="P55" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2">
         <v>44839</v>
@@ -4617,7 +4618,7 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G56" s="2">
         <v>45221</v>
@@ -4632,10 +4633,10 @@
         <v>0.16990593846999499</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M56" s="10">
         <v>5</v>
@@ -4644,18 +4645,18 @@
         <v>0.1</v>
       </c>
       <c r="O56" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="P56" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2">
         <v>44827</v>
@@ -4667,7 +4668,7 @@
         <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G57" s="2">
         <v>45221</v>
@@ -4682,10 +4683,10 @@
         <v>0.1672729824948033</v>
       </c>
       <c r="K57" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="M57" s="10">
         <v>4</v>
@@ -4694,18 +4695,18 @@
         <v>0.05</v>
       </c>
       <c r="O57" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="P57" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2">
         <v>44705</v>
@@ -4717,7 +4718,7 @@
         <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G58" s="2">
         <v>45221</v>
@@ -4732,10 +4733,10 @@
         <v>0.1664844966940994</v>
       </c>
       <c r="K58" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M58" s="10">
         <v>4</v>
@@ -4744,18 +4745,18 @@
         <v>0.2</v>
       </c>
       <c r="O58" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="P58" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2">
         <v>45061</v>
@@ -4767,7 +4768,7 @@
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G59" s="2">
         <v>45221</v>
@@ -4782,30 +4783,30 @@
         <v>0.16192857897081411</v>
       </c>
       <c r="K59" t="s">
-        <v>291</v>
+        <v>445</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M59" s="10">
         <v>5</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="P59" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2">
         <v>44455</v>
@@ -4817,7 +4818,7 @@
         <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G60" s="2">
         <v>45221</v>
@@ -4832,30 +4833,30 @@
         <v>0.1578470980446437</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M60" s="10">
         <v>4</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="O60" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="P60" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2">
         <v>44484</v>
@@ -4867,7 +4868,7 @@
         <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G61" s="2">
         <v>45221</v>
@@ -4882,30 +4883,30 @@
         <v>0.15456272931786141</v>
       </c>
       <c r="K61" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M61" s="10">
         <v>3</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="O61" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="P61" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2">
         <v>44880</v>
@@ -4917,7 +4918,7 @@
         <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G62" s="2">
         <v>45221</v>
@@ -4932,10 +4933,10 @@
         <v>0.15224059419486069</v>
       </c>
       <c r="K62" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M62" s="10">
         <v>4</v>
@@ -4944,18 +4945,18 @@
         <v>0.4</v>
       </c>
       <c r="O62" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="P62" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2">
         <v>44837</v>
@@ -4967,7 +4968,7 @@
         <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G63" s="2">
         <v>45221</v>
@@ -4982,30 +4983,30 @@
         <v>0.15081990823327751</v>
       </c>
       <c r="K63" t="s">
-        <v>304</v>
-      </c>
-      <c r="L63" t="s">
-        <v>304</v>
-      </c>
-      <c r="M63" t="s">
-        <v>304</v>
-      </c>
-      <c r="N63" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="O63" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="P63" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2">
         <v>44964</v>
@@ -5017,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G64" s="2">
         <v>45221</v>
@@ -5032,30 +5033,30 @@
         <v>0.14753579386393459</v>
       </c>
       <c r="K64" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M64" s="10">
         <v>4</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="O64" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="P64" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2">
         <v>44963</v>
@@ -5067,7 +5068,7 @@
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G65" s="2">
         <v>45221</v>
@@ -5082,27 +5083,30 @@
         <v>0.143097693189494</v>
       </c>
       <c r="K65" t="s">
-        <v>456</v>
+        <v>432</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="M65" s="10">
         <v>5</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="O65" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="P65" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2">
         <v>44980</v>
@@ -5114,7 +5118,7 @@
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G66" s="2">
         <v>45221</v>
@@ -5128,16 +5132,13 @@
       <c r="J66">
         <v>0.1407490908707828</v>
       </c>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2">
         <v>44633</v>
@@ -5149,7 +5150,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G67" s="2">
         <v>45221</v>
@@ -5163,16 +5164,13 @@
       <c r="J67">
         <v>0.1325258059403561</v>
       </c>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2">
         <v>44833</v>
@@ -5184,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G68" s="2">
         <v>45221</v>
@@ -5198,16 +5196,13 @@
       <c r="J68">
         <v>0.13125230137418131</v>
       </c>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2">
         <v>44988</v>
@@ -5219,7 +5214,7 @@
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G69" s="2">
         <v>45221</v>
@@ -5233,16 +5228,13 @@
       <c r="J69">
         <v>0.1284441136443728</v>
       </c>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2">
         <v>44903</v>
@@ -5254,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G70" s="2">
         <v>45221</v>
@@ -5268,16 +5260,13 @@
       <c r="J70">
         <v>0.12556322350312701</v>
       </c>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2">
         <v>45062</v>
@@ -5289,7 +5278,7 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G71" s="2">
         <v>45221</v>
@@ -5303,16 +5292,13 @@
       <c r="J71">
         <v>0.1190740187342867</v>
       </c>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2">
         <v>45070</v>
@@ -5324,7 +5310,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G72" s="2">
         <v>45221</v>
@@ -5338,16 +5324,13 @@
       <c r="J72">
         <v>0.1121633829796103</v>
       </c>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2">
         <v>44986</v>
@@ -5359,7 +5342,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G73" s="2">
         <v>45221</v>
@@ -5373,16 +5356,13 @@
       <c r="J73">
         <v>0.1018828738867036</v>
       </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2">
         <v>44958</v>
@@ -5394,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G74" s="2">
         <v>45221</v>
@@ -5408,16 +5388,13 @@
       <c r="J74">
         <v>9.864753644344397E-2</v>
       </c>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2">
         <v>45005</v>
@@ -5429,7 +5406,7 @@
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G75" s="2">
         <v>45221</v>
@@ -5443,16 +5420,13 @@
       <c r="J75">
         <v>9.6968749784157426E-2</v>
       </c>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2">
         <v>44838</v>
@@ -5464,7 +5438,7 @@
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G76" s="2">
         <v>45221</v>
@@ -5478,16 +5452,13 @@
       <c r="J76">
         <v>9.6463538390330283E-2</v>
       </c>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2">
         <v>44968</v>
@@ -5499,7 +5470,7 @@
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G77" s="2">
         <v>45221</v>
@@ -5513,16 +5484,13 @@
       <c r="J77">
         <v>9.46504304825702E-2</v>
       </c>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C78" s="2">
         <v>45090</v>
@@ -5534,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G78" s="2">
         <v>45221</v>
@@ -5548,16 +5516,13 @@
       <c r="J78">
         <v>9.1209934876282261E-2</v>
       </c>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C79" s="2">
         <v>45068</v>
@@ -5569,7 +5534,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G79" s="2">
         <v>45221</v>
@@ -5583,16 +5548,13 @@
       <c r="J79">
         <v>9.1166835316776149E-2</v>
       </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2">
         <v>44991</v>
@@ -5604,7 +5566,7 @@
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G80" s="2">
         <v>45221</v>
@@ -5618,16 +5580,13 @@
       <c r="J80">
         <v>9.1080758277765461E-2</v>
       </c>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2">
         <v>44687</v>
@@ -5639,7 +5598,7 @@
         <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G81" s="2">
         <v>45221</v>
@@ -5654,12 +5613,12 @@
         <v>8.7922018496103663E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2">
         <v>44981</v>
@@ -5671,7 +5630,7 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G82" s="2">
         <v>45221</v>
@@ -5686,12 +5645,12 @@
         <v>8.7294633783215406E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2">
         <v>44985</v>
@@ -5703,7 +5662,7 @@
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G83" s="2">
         <v>45221</v>
@@ -5718,12 +5677,12 @@
         <v>8.0316322752721242E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2">
         <v>44671</v>
@@ -5735,7 +5694,7 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G84" s="2">
         <v>45221</v>
@@ -5750,12 +5709,12 @@
         <v>7.8101641114430492E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2">
         <v>44264</v>
@@ -5767,7 +5726,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G85" s="2">
         <v>45221</v>
@@ -5782,12 +5741,12 @@
         <v>7.727938022369335E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2">
         <v>45009</v>
@@ -5799,7 +5758,7 @@
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G86" s="2">
         <v>45221</v>
@@ -5814,12 +5773,12 @@
         <v>7.5271229748583995E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C87" s="2">
         <v>44955</v>
@@ -5831,7 +5790,7 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G87" s="2">
         <v>45221</v>
@@ -5846,12 +5805,12 @@
         <v>7.5028712915156601E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C88" s="2">
         <v>44847</v>
@@ -5863,7 +5822,7 @@
         <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G88" s="2">
         <v>45221</v>
@@ -5878,12 +5837,12 @@
         <v>7.4753457350145922E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C89" s="2">
         <v>44910</v>
@@ -5895,7 +5854,7 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G89" s="2">
         <v>45221</v>
@@ -5910,12 +5869,12 @@
         <v>7.3820963181657082E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C90" s="2">
         <v>45003</v>
@@ -5927,7 +5886,7 @@
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G90" s="2">
         <v>45221</v>
@@ -5942,12 +5901,12 @@
         <v>7.3204896285936502E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C91" s="2">
         <v>45068</v>
@@ -5959,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G91" s="2">
         <v>45221</v>
@@ -5974,12 +5933,12 @@
         <v>7.1631084891752683E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C92" s="2">
         <v>44973</v>
@@ -5991,7 +5950,7 @@
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G92" s="2">
         <v>45221</v>
@@ -6006,12 +5965,12 @@
         <v>6.4369580425304621E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C93" s="2">
         <v>44908</v>
@@ -6023,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G93" s="3">
         <v>45221</v>
@@ -6038,12 +5997,12 @@
         <v>6.378270703901022E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C94" s="2">
         <v>45028</v>
@@ -6055,7 +6014,7 @@
         <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G94" s="2">
         <v>45221</v>
@@ -6070,12 +6029,12 @@
         <v>6.1994801978698992E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C95" s="2">
         <v>44136</v>
@@ -6087,7 +6046,7 @@
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G95" s="2">
         <v>45221</v>
@@ -6102,12 +6061,12 @@
         <v>5.8955495687500178E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C96" s="2">
         <v>44755</v>
@@ -6119,7 +6078,7 @@
         <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G96" s="2">
         <v>45221</v>
@@ -6134,12 +6093,12 @@
         <v>5.7869797902564767E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C97" s="2">
         <v>45135</v>
@@ -6151,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G97" s="2">
         <v>45221</v>
@@ -6166,12 +6125,12 @@
         <v>5.7760321334283563E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C98" s="2">
         <v>44682</v>
@@ -6183,7 +6142,7 @@
         <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G98" s="2">
         <v>45221</v>
@@ -6198,12 +6157,12 @@
         <v>5.7453730502123913E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C99" s="2">
         <v>45069</v>
@@ -6215,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G99" s="2">
         <v>45221</v>
@@ -6230,12 +6189,12 @@
         <v>5.2436798536494633E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C100" s="2">
         <v>44991</v>
@@ -6247,7 +6206,7 @@
         <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G100" s="2">
         <v>45221</v>
@@ -6262,12 +6221,12 @@
         <v>5.2046147587294547E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C101" s="2">
         <v>45008</v>
@@ -6279,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G101" s="2">
         <v>45221</v>
@@ -6294,12 +6253,12 @@
         <v>5.1506659850452399E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C102" s="2">
         <v>44985</v>
@@ -6311,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G102" s="2">
         <v>45221</v>
@@ -6326,12 +6285,12 @@
         <v>5.0726098580666047E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C103" s="2">
         <v>45181</v>
@@ -6343,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G103" s="2">
         <v>45221</v>
@@ -6358,12 +6317,12 @@
         <v>4.9304054327021257E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C104" s="2">
         <v>44886</v>
@@ -6375,7 +6334,7 @@
         <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G104" s="2">
         <v>45221</v>
@@ -6390,12 +6349,12 @@
         <v>4.7680831849081291E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2">
         <v>45177</v>
@@ -6407,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G105" s="2">
         <v>45221</v>
@@ -6422,12 +6381,12 @@
         <v>4.4878655035075259E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C106" s="2">
         <v>44979</v>
@@ -6439,7 +6398,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G106" s="2">
         <v>45221</v>
@@ -6454,12 +6413,12 @@
         <v>4.1226128488322772E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C107" s="2">
         <v>45023</v>
@@ -6471,7 +6430,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G107" s="2">
         <v>45221</v>
@@ -6486,12 +6445,12 @@
         <v>4.0289152148574113E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C108" s="2">
         <v>45065</v>
@@ -6503,7 +6462,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G108" s="2">
         <v>45221</v>
@@ -6518,12 +6477,12 @@
         <v>3.8322835500137008E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2">
         <v>44945</v>
@@ -6535,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G109" s="2">
         <v>45221</v>
@@ -6550,12 +6509,12 @@
         <v>3.615791552578114E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C110" s="2">
         <v>45000</v>
@@ -6567,7 +6526,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G110" s="2">
         <v>45221</v>
@@ -6582,12 +6541,12 @@
         <v>3.6106848499292743E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C111" s="2">
         <v>45050</v>
@@ -6599,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G111" s="2">
         <v>45221</v>
@@ -6614,12 +6573,12 @@
         <v>3.4972246386761691E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C112" s="2">
         <v>44684</v>
@@ -6631,7 +6590,7 @@
         <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G112" s="2">
         <v>45221</v>
@@ -6646,12 +6605,12 @@
         <v>3.3484346784212582E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C113" s="2">
         <v>45068</v>
@@ -6663,7 +6622,7 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G113" s="2">
         <v>45221</v>
@@ -6678,12 +6637,12 @@
         <v>3.2559584041705773E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C114" s="2">
         <v>45065</v>
@@ -6695,7 +6654,7 @@
         <v>5</v>
       </c>
       <c r="F114" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G114" s="2">
         <v>45221</v>
@@ -6710,12 +6669,12 @@
         <v>3.1935696250114179E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C115" s="2">
         <v>45064</v>
@@ -6727,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G115" s="2">
         <v>45221</v>
@@ -6742,12 +6701,12 @@
         <v>3.1733013076770053E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2">
         <v>45063</v>
@@ -6759,7 +6718,7 @@
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G116" s="2">
         <v>45221</v>
@@ -6774,12 +6733,12 @@
         <v>3.1532886377616212E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C117" s="2">
         <v>45062</v>
@@ -6791,7 +6750,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G117" s="2">
         <v>45221</v>
@@ -6806,12 +6765,12 @@
         <v>3.1335268087970193E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C118" s="2">
         <v>44809</v>
@@ -6823,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G118" s="2">
         <v>45221</v>
@@ -6838,12 +6797,12 @@
         <v>2.9086352907926431E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C119" s="2">
         <v>45069</v>
@@ -6855,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G119" s="2">
         <v>45221</v>
@@ -6870,12 +6829,12 @@
         <v>2.621839926824731E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C120" s="2">
         <v>45065</v>
@@ -6887,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G120" s="2">
         <v>45221</v>
@@ -6902,12 +6861,12 @@
         <v>2.554855700009134E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C121" s="2">
         <v>45182</v>
@@ -6919,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G121" s="2">
         <v>45221</v>
@@ -6934,12 +6893,12 @@
         <v>2.527510985829811E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C122" s="2">
         <v>44894</v>
@@ -6951,7 +6910,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G122" s="2">
         <v>45221</v>
@@ -6966,12 +6925,12 @@
         <v>2.4422662353021291E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C123" s="2">
         <v>44974</v>
@@ -6983,7 +6942,7 @@
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G123" s="2">
         <v>45221</v>
@@ -6998,12 +6957,12 @@
         <v>2.4236096871160712E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C124" s="2">
         <v>44705</v>
@@ -7015,7 +6974,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G124" s="2">
         <v>45221</v>
@@ -7030,12 +6989,12 @@
         <v>2.1294528646919691E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C125" s="2">
         <v>44979</v>
@@ -7047,7 +7006,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G125" s="2">
         <v>45221</v>
@@ -7062,12 +7021,12 @@
         <v>2.0613064244161389E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2">
         <v>45069</v>
@@ -7079,7 +7038,7 @@
         <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G126" s="2">
         <v>45221</v>
@@ -7094,12 +7053,12 @@
         <v>1.9663799451185481E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C127" s="2">
         <v>45069</v>
@@ -7111,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G127" s="2">
         <v>45221</v>
@@ -7126,12 +7085,12 @@
         <v>1.9663799451185481E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C128" s="2">
         <v>45063</v>
@@ -7143,7 +7102,7 @@
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G128" s="2">
         <v>45221</v>
@@ -7158,12 +7117,12 @@
         <v>1.8919731826569731E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C129" s="2">
         <v>45062</v>
@@ -7175,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G129" s="2">
         <v>45221</v>
@@ -7190,12 +7149,12 @@
         <v>1.880116085278211E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C130" s="2">
         <v>44198</v>
@@ -7207,7 +7166,7 @@
         <v>18</v>
       </c>
       <c r="F130" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G130" s="2">
         <v>45221</v>
@@ -7222,12 +7181,12 @@
         <v>1.7585602051589148E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C131" s="2">
         <v>44991</v>
@@ -7239,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G131" s="2">
         <v>45221</v>
@@ -7254,12 +7213,12 @@
         <v>1.7348715862431519E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C132" s="2">
         <v>44988</v>
@@ -7271,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G132" s="2">
         <v>45221</v>
@@ -7286,12 +7245,12 @@
         <v>1.7125881819249709E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C133" s="2">
         <v>44972</v>
@@ -7303,7 +7262,7 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G133" s="2">
         <v>45221</v>
@@ -7318,12 +7277,12 @@
         <v>1.6027913228226519E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C134" s="2">
         <v>44968</v>
@@ -7335,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G134" s="2">
         <v>45221</v>
@@ -7350,12 +7309,12 @@
         <v>1.577507174709503E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C135" s="2">
         <v>44998</v>
@@ -7367,7 +7326,7 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G135" s="2">
         <v>45221</v>
@@ -7382,12 +7341,12 @@
         <v>1.341893928528602E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B136" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C136" s="2">
         <v>44992</v>
@@ -7399,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G136" s="2">
         <v>45221</v>
@@ -7414,12 +7373,12 @@
         <v>1.306821608876183E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C137" s="2">
         <v>44987</v>
@@ -7431,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G137" s="2">
         <v>45221</v>
@@ -7446,12 +7405,12 @@
         <v>1.278965284365984E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="C138" s="2">
         <v>45008</v>
@@ -7463,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G138" s="2">
         <v>45221</v>
@@ -7478,12 +7437,12 @@
         <v>9.3648472455368E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C139" s="2">
         <v>44971</v>
@@ -7495,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G139" s="2">
         <v>45221</v>
@@ -7510,12 +7469,12 @@
         <v>7.9819730213691233E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C140" s="2">
         <v>45077</v>
@@ -7527,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G140" s="2">
         <v>45221</v>
@@ -7542,12 +7501,12 @@
         <v>6.917322039245815E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C141" s="2">
         <v>45076</v>
@@ -7559,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G141" s="2">
         <v>45221</v>
@@ -7574,12 +7533,12 @@
         <v>6.8698014105434213E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B142" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C142" s="2">
         <v>45072</v>
@@ -7591,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G142" s="2">
         <v>45221</v>
@@ -7606,12 +7565,12 @@
         <v>6.6860734239870094E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C143" s="2">
         <v>45064</v>
@@ -7623,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G143" s="2">
         <v>45221</v>
@@ -7638,12 +7597,12 @@
         <v>6.3466026153540106E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B144" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C144" s="2">
         <v>45064</v>
@@ -7655,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G144" s="2">
         <v>45221</v>
@@ -7670,12 +7629,12 @@
         <v>6.3466026153540106E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C145" s="2">
         <v>44975</v>
@@ -7687,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G145" s="2">
         <v>45221</v>
@@ -7702,12 +7661,12 @@
         <v>4.0557319974557516E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C146" s="2">
         <v>45064</v>
@@ -7719,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G146" s="2">
         <v>45221</v>
@@ -7734,12 +7693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C147" s="2">
         <v>45065</v>
@@ -7751,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G147" s="2">
         <v>45221</v>
@@ -7766,12 +7725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C148" s="2">
         <v>45023</v>
@@ -7783,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G148" s="2">
         <v>45221</v>
@@ -7798,12 +7757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C149" s="2">
         <v>45076</v>
@@ -7815,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G149" s="2">
         <v>45221</v>
@@ -7830,12 +7789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C150" s="2">
         <v>45180</v>
@@ -7847,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G150" s="2">
         <v>45221</v>
@@ -7862,12 +7821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C151" s="2">
         <v>45078</v>
@@ -7879,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G151" s="2">
         <v>45221</v>
@@ -7894,12 +7853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C152" s="2">
         <v>45028</v>
@@ -7911,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G152" s="2">
         <v>45221</v>
@@ -7926,12 +7885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D153">
         <v>2023</v>
@@ -7940,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G153" s="2">
         <v>45221</v>
@@ -7949,12 +7908,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="154" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B154" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D154">
         <v>2012</v>
@@ -7963,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G154" s="2">
         <v>45221</v>
@@ -7972,12 +7931,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="155" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B155" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D155">
         <v>2023</v>
@@ -7986,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G155" s="2">
         <v>45221</v>
@@ -7995,12 +7954,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="156" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B156" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D156">
         <v>2023</v>
@@ -8009,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G156" s="2">
         <v>45221</v>
@@ -8018,12 +7977,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="157" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D157">
         <v>2022</v>
@@ -8032,7 +7991,7 @@
         <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G157" s="2">
         <v>45221</v>
@@ -8041,12 +8000,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="158" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D158">
         <v>2023</v>
@@ -8055,7 +8014,7 @@
         <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G158" s="2">
         <v>45221</v>
@@ -8064,12 +8023,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D159">
         <v>2022</v>
@@ -8078,7 +8037,7 @@
         <v>106</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G159" s="2">
         <v>45221</v>
@@ -8087,12 +8046,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D160">
         <v>2021</v>
@@ -8101,7 +8060,7 @@
         <v>1682</v>
       </c>
       <c r="F160" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G160" s="2">
         <v>45221</v>
@@ -8110,12 +8069,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="161" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D161">
         <v>2023</v>
@@ -8124,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G161" s="2">
         <v>45221</v>
@@ -8133,12 +8092,12 @@
         <v>45221.564615370873</v>
       </c>
     </row>
-    <row r="162" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D162">
         <v>2023</v>
@@ -8147,7 +8106,7 @@
         <v>105</v>
       </c>
       <c r="F162" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G162" s="2">
         <v>45221</v>
